--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/15/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>8.5</v>
+        <v>8.420300000000003</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
@@ -479,13 +479,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.99790000000001</v>
+        <v>-21.8546</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.8846</v>
+        <v>-11.34810000000001</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.9371</v>
+        <v>-7.884599999999995</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.43210000000001</v>
+        <v>16.42210000000001</v>
       </c>
     </row>
     <row r="9">
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.58719999999999</v>
+        <v>-11.82569999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.634</v>
+        <v>-21.6437</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.672799999999993</v>
+        <v>-8.606799999999993</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.09449999999999</v>
+        <v>-20.36059999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.13229999999998</v>
+        <v>-19.86239999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.37559999999999</v>
+        <v>16.31459999999999</v>
       </c>
     </row>
     <row r="24">
@@ -842,10 +842,10 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.46359999999999</v>
+        <v>-13.00419999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.0923</v>
+        <v>-7.978199999999995</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.78449999999999</v>
+        <v>-21.8123</v>
       </c>
       <c r="B25" t="n">
-        <v>5.607199999999998</v>
+        <v>5.822799999999998</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.9131</v>
+        <v>-12.99229999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.20199999999997</v>
+        <v>-21.21339999999996</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.30970000000001</v>
+        <v>16.397</v>
       </c>
     </row>
     <row r="27">
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.936400000000004</v>
+        <v>5.964600000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.65379999999998</v>
+        <v>-20.67359999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.356800000000006</v>
+        <v>-7.567499999999998</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -958,13 +958,13 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.219600000000006</v>
+        <v>5.074400000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.1921</v>
+        <v>-8.170399999999995</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.825299999999998</v>
+        <v>-7.696899999999996</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.47530000000002</v>
+        <v>16.60400000000002</v>
       </c>
     </row>
     <row r="38">
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.625900000000005</v>
+        <v>9.952100000000003</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.914699999999995</v>
+        <v>-8.973699999999996</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.681100000000002</v>
+        <v>5.428400000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.40600000000002</v>
+        <v>17.3589</v>
       </c>
     </row>
     <row r="49">
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.48639999999999</v>
+        <v>-13.58389999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.2094</v>
+        <v>5.531100000000001</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.678100000000001</v>
+        <v>4.746600000000003</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.4637</v>
+        <v>-21.5059</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.4449</v>
+        <v>-10.4108</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1366,13 +1366,13 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.329699999999994</v>
+        <v>5.690799999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.089899999999998</v>
+        <v>-8.1852</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.997200000000001</v>
+        <v>5.0914</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.1294</v>
+        <v>-22.02270000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>5.012899999999995</v>
+        <v>5.364699999999996</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.21179999999999</v>
+        <v>-13.00879999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.1745</v>
+        <v>-8.102499999999997</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.4102</v>
+        <v>-22.20819999999999</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1471,7 +1471,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-12.36109999999998</v>
+        <v>-12.62739999999999</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.4601</v>
+        <v>16.5658</v>
       </c>
     </row>
     <row r="63">
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.7753</v>
+        <v>-11.3061</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-8.199199999999999</v>
+        <v>-8.068599999999996</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1562,7 +1562,7 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>17.10610000000001</v>
+        <v>17.00940000000002</v>
       </c>
     </row>
     <row r="67">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61659999999999</v>
+        <v>-21.60799999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.1346</v>
+        <v>-11.9446</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.226999999999997</v>
+        <v>-8.160999999999998</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.339399999999998</v>
+        <v>8.309499999999993</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1712,7 +1712,7 @@
         <v>-14.77</v>
       </c>
       <c r="D75" t="n">
-        <v>-8.163699999999999</v>
+        <v>-8.031700000000003</v>
       </c>
       <c r="E75" t="n">
         <v>16.51</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.55790000000001</v>
+        <v>-20.4513</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.0966</v>
+        <v>-22.0772</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.240799999999993</v>
+        <v>-8.205999999999991</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1896,10 +1896,10 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.2982</v>
+        <v>-13.39269999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.145399999999993</v>
+        <v>-7.893399999999988</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>5.054799999999998</v>
+        <v>4.875399999999997</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.73500000000001</v>
+        <v>17.81870000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.570400000000001</v>
+        <v>5.4752</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.2566</v>
+        <v>-21.26350000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.202899999999992</v>
+        <v>5.142899999999994</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.77239999999999</v>
+        <v>-20.81669999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>18.56830000000002</v>
+        <v>18.72990000000002</v>
       </c>
     </row>
     <row r="95">
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.432099999999989</v>
+        <v>-8.004499999999993</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2086,7 +2086,7 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.314800000000002</v>
+        <v>-8.102</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.20959999999999</v>
+        <v>-12.02059999999999</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.74659999999999</v>
+        <v>-13.16549999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.4639</v>
+        <v>-13.07930000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
